--- a/src/test/resources/NS4S/2300 HKST.xlsx
+++ b/src/test/resources/NS4S/2300 HKST.xlsx
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -458,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>3.38</v>
+        <v>4.59</v>
       </c>
       <c r="E2" s="2">
-        <v>4.29</v>
+        <v>3.12</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1900000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -472,13 +472,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4.66</v>
+        <v>5.47</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="2">
-        <v>4.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,13 +486,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>5.15</v>
+        <v>4.53</v>
       </c>
       <c r="E4" s="2">
-        <v>3.56</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,15 +501,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.3966666666666665</v>
+        <v>4.8633333333333333</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.9966666666666666</v>
+        <v>3.2866666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.0200000000000005</v>
+        <v>4.3233333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.68</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="2">
-        <v>3.71</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -534,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4.74</v>
+        <v>5.03</v>
       </c>
       <c r="F7" s="2">
-        <v>4.6100000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="2">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="F8" s="2">
-        <v>5.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,15 +563,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>3.2533333333333339</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>4.5533333333333337</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.6366666666666667</v>
+        <v>3.9066666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,13 +585,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>4.3099999999999996</v>
+        <v>5.35</v>
       </c>
       <c r="E10" s="2">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="F10" s="2">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,13 +599,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3.32</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>4.4400000000000004</v>
+        <v>5.55</v>
       </c>
       <c r="F11" s="2">
-        <v>3.83</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,13 +613,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>3.31</v>
       </c>
       <c r="F12" s="2">
-        <v>3.3</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,15 +628,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>3.4766666666666666</v>
+        <v>4.4633333333333338</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.2933333333333339</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>3.5833333333333335</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="E14" s="2">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="F14" s="2">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="E15" s="2">
-        <v>4.91</v>
+        <v>3.78</v>
       </c>
       <c r="F15" s="2">
-        <v>2.98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>3.51</v>
+        <v>5.74</v>
       </c>
       <c r="E16" s="2">
-        <v>5.48</v>
+        <v>5.82</v>
       </c>
       <c r="F16" s="2">
-        <v>5.71</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,15 +690,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.13</v>
+        <v>4.8133333333333335</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>5.3166666666666664</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.1566666666666663</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,13 +712,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>5.67</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>5.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,13 +726,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>3.49</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7</v>
+        <v>2.85</v>
       </c>
       <c r="F19" s="2">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>5.12</v>
+        <v>3.66</v>
       </c>
       <c r="E20" s="2">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="F20" s="2">
-        <v>4.87</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,15 +755,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.7600000000000007</v>
+        <v>4.2766666666666664</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>4.8500000000000005</v>
+        <v>3.6300000000000003</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.4766666666666666</v>
+        <v>5.5799999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,13 +774,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>5.58</v>
+        <v>2.85</v>
       </c>
       <c r="E22" s="2">
-        <v>5.42</v>
+        <v>4.01</v>
       </c>
       <c r="F22" s="2">
-        <v>2.92</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9400000000000004</v>
+        <v>2.83</v>
       </c>
       <c r="E23" s="2">
-        <v>2.6</v>
+        <v>5.01</v>
       </c>
       <c r="F23" s="2">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.66</v>
+        <v>4.95</v>
       </c>
       <c r="E24" s="2">
-        <v>5.63</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="2">
-        <v>2.92</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,15 +817,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>5.0599999999999996</v>
+        <v>3.543333333333333</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.55</v>
+        <v>4.7733333333333334</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>3.3633333333333333</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>5.13</v>
+        <v>4.99</v>
       </c>
       <c r="E26" s="2">
-        <v>4.55</v>
+        <v>5.23</v>
       </c>
       <c r="F26" s="2">
-        <v>4.49</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>3.68</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E27" s="2">
-        <v>2.97</v>
+        <v>5.07</v>
       </c>
       <c r="F27" s="2">
-        <v>5.53</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.31</v>
+        <v>3.89</v>
       </c>
       <c r="E28" s="2">
-        <v>4.84</v>
+        <v>3.45</v>
       </c>
       <c r="F28" s="2">
-        <v>5.48</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,15 +882,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.04</v>
+        <v>4.5933333333333337</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.12</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>5.166666666666667</v>
+        <v>3.9499999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,13 +901,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.18</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E30" s="2">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="F30" s="2">
-        <v>2.65</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>4.79</v>
+        <v>5.17</v>
       </c>
       <c r="E31" s="2">
-        <v>3.44</v>
+        <v>3.92</v>
       </c>
       <c r="F31" s="2">
-        <v>5.28</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="E32" s="2">
-        <v>4.37</v>
+        <v>5.12</v>
       </c>
       <c r="F32" s="2">
-        <v>5.45</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.1899999999999995</v>
+        <v>4.59</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>3.6633333333333336</v>
+        <v>4.0166666666666666</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>4.46</v>
+        <v>4.0466666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,13 +966,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2">
-        <v>2.85</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E34" s="2">
-        <v>2.62</v>
+        <v>3.74</v>
       </c>
       <c r="F34" s="2">
-        <v>4.12</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>4.83</v>
+        <v>5.14</v>
       </c>
       <c r="E35" s="2">
-        <v>4.34</v>
+        <v>5.38</v>
       </c>
       <c r="F35" s="2">
-        <v>4.0599999999999996</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,13 +994,13 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>3.24</v>
+        <v>4.32</v>
       </c>
       <c r="E36" s="2">
-        <v>5.28</v>
+        <v>3.9</v>
       </c>
       <c r="F36" s="2">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,15 +1009,15 @@
       </c>
       <c r="D37" s="1">
         <f>AVERAGE(D34:D36)</f>
-        <v>3.64</v>
+        <v>4.59</v>
       </c>
       <c r="E37" s="1">
         <f>AVERAGE(E34:E36)</f>
-        <v>4.08</v>
+        <v>4.3400000000000007</v>
       </c>
       <c r="F37" s="1">
         <f>AVERAGE(F34:F36)</f>
-        <v>3.9866666666666664</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="2">
-        <v>3.61</v>
+        <v>5.78</v>
       </c>
       <c r="E38" s="2">
-        <v>5.12</v>
+        <v>3.2</v>
       </c>
       <c r="F38" s="2">
-        <v>2.73</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="E39" s="2">
-        <v>5.86</v>
+        <v>4.87</v>
       </c>
       <c r="F39" s="2">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="E40" s="2">
-        <v>2.97</v>
+        <v>5.53</v>
       </c>
       <c r="F40" s="2">
-        <v>3.21</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,15 +1071,15 @@
       </c>
       <c r="D41" s="1">
         <f>AVERAGE(D38:D40)</f>
-        <v>3.3633333333333333</v>
+        <v>4.04</v>
       </c>
       <c r="E41" s="1">
         <f>AVERAGE(E38:E40)</f>
-        <v>4.6500000000000004</v>
+        <v>4.5333333333333341</v>
       </c>
       <c r="F41" s="1">
         <f>AVERAGE(F38:F40)</f>
-        <v>3.1033333333333331</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/2300 HKST.xlsx
+++ b/src/test/resources/NS4S/2300 HKST.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D41" sqref="D41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.59</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="2">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="2">
-        <v>5.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -472,13 +472,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>5.47</v>
+        <v>2.91</v>
       </c>
       <c r="E3" s="2">
-        <v>4.07</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,13 +486,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E4" s="2">
-        <v>2.67</v>
+        <v>5.86</v>
       </c>
       <c r="F4" s="2">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,15 +501,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.8633333333333333</v>
+        <v>3.74</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.2866666666666666</v>
+        <v>4.7266666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.3233333333333333</v>
+        <v>2.9366666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,13 +585,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="E10" s="2">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="F10" s="2">
-        <v>2.77</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,13 +599,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="E11" s="2">
-        <v>5.55</v>
+        <v>5.19</v>
       </c>
       <c r="F11" s="2">
-        <v>5.57</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,13 +613,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>3.18</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="F12" s="2">
-        <v>4.92</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,15 +628,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.4633333333333338</v>
+        <v>4.79</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3666666666666663</v>
+        <v>4.4233333333333338</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.42</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="F14" s="2">
-        <v>3.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.08</v>
+        <v>5.71</v>
       </c>
       <c r="E15" s="2">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>5.74</v>
+        <v>4.33</v>
       </c>
       <c r="E16" s="2">
-        <v>5.82</v>
+        <v>2.89</v>
       </c>
       <c r="F16" s="2">
-        <v>5.07</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,15 +690,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.8133333333333335</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.4333333333333336</v>
+        <v>3.25</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.96</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,13 +712,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.97</v>
       </c>
       <c r="E18" s="2">
-        <v>4.1500000000000004</v>
+        <v>5.66</v>
       </c>
       <c r="F18" s="2">
-        <v>5.85</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,13 +726,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>4.3099999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="E19" s="2">
-        <v>2.85</v>
+        <v>5.55</v>
       </c>
       <c r="F19" s="2">
-        <v>5.69</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>3.66</v>
+        <v>2.72</v>
       </c>
       <c r="E20" s="2">
-        <v>3.89</v>
+        <v>4.5</v>
       </c>
       <c r="F20" s="2">
-        <v>5.2</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,15 +755,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.2766666666666664</v>
+        <v>4.0333333333333332</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>3.6300000000000003</v>
+        <v>5.2366666666666672</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.5799999999999992</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,13 +774,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>2.85</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="2">
-        <v>4.01</v>
+        <v>4.21</v>
       </c>
       <c r="F22" s="2">
-        <v>5.0199999999999996</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>5.01</v>
+        <v>3.79</v>
       </c>
       <c r="F23" s="2">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.95</v>
+        <v>3.44</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3</v>
+        <v>4.79</v>
       </c>
       <c r="F24" s="2">
-        <v>4.59</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,15 +817,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>3.543333333333333</v>
+        <v>3.8966666666666665</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.7733333333333334</v>
+        <v>4.2633333333333328</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>4.5599999999999996</v>
+        <v>3.7633333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>4.99</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E26" s="2">
-        <v>5.23</v>
+        <v>3.28</v>
       </c>
       <c r="F26" s="2">
-        <v>3.32</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>4.9000000000000004</v>
+        <v>2.96</v>
       </c>
       <c r="E27" s="2">
-        <v>5.07</v>
+        <v>3.99</v>
       </c>
       <c r="F27" s="2">
-        <v>3.61</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="E28" s="2">
-        <v>3.45</v>
+        <v>5.05</v>
       </c>
       <c r="F28" s="2">
-        <v>4.92</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,15 +882,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.5933333333333337</v>
+        <v>3.69</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.583333333333333</v>
+        <v>4.1066666666666665</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>3.9499999999999997</v>
+        <v>3.8933333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,13 +901,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.2699999999999996</v>
+        <v>5.33</v>
       </c>
       <c r="E30" s="2">
-        <v>3.01</v>
+        <v>5.66</v>
       </c>
       <c r="F30" s="2">
-        <v>3.48</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>5.17</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E31" s="2">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F31" s="2">
-        <v>4.6900000000000004</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>4.33</v>
+        <v>5.34</v>
       </c>
       <c r="E32" s="2">
         <v>5.12</v>
       </c>
       <c r="F32" s="2">
-        <v>3.97</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.59</v>
+        <v>5.16</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>4.0166666666666666</v>
+        <v>4.9066666666666663</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>4.0466666666666669</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,13 +966,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2">
-        <v>4.3099999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E34" s="2">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="F34" s="2">
-        <v>4.7</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>5.14</v>
+        <v>3.11</v>
       </c>
       <c r="E35" s="2">
-        <v>5.38</v>
+        <v>3.33</v>
       </c>
       <c r="F35" s="2">
-        <v>2.91</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,13 +994,13 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>4.32</v>
+        <v>5.45</v>
       </c>
       <c r="E36" s="2">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="F36" s="2">
-        <v>3.97</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,15 +1009,15 @@
       </c>
       <c r="D37" s="1">
         <f>AVERAGE(D34:D36)</f>
-        <v>4.59</v>
+        <v>4.2033333333333331</v>
       </c>
       <c r="E37" s="1">
         <f>AVERAGE(E34:E36)</f>
-        <v>4.3400000000000007</v>
+        <v>3.5533333333333332</v>
       </c>
       <c r="F37" s="1">
         <f>AVERAGE(F34:F36)</f>
-        <v>3.86</v>
+        <v>3.4533333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="2">
-        <v>5.78</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2">
-        <v>3.2</v>
+        <v>5.05</v>
       </c>
       <c r="F38" s="2">
-        <v>5.96</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>3.4</v>
+        <v>4.97</v>
       </c>
       <c r="E39" s="2">
-        <v>4.87</v>
+        <v>2.74</v>
       </c>
       <c r="F39" s="2">
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>2.94</v>
+        <v>3.48</v>
       </c>
       <c r="E40" s="2">
-        <v>5.53</v>
+        <v>3.14</v>
       </c>
       <c r="F40" s="2">
-        <v>3.83</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,15 +1071,15 @@
       </c>
       <c r="D41" s="1">
         <f>AVERAGE(D38:D40)</f>
-        <v>4.04</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="E41" s="1">
         <f>AVERAGE(E38:E40)</f>
-        <v>4.5333333333333341</v>
+        <v>3.6433333333333331</v>
       </c>
       <c r="F41" s="1">
         <f>AVERAGE(F38:F40)</f>
-        <v>4.3</v>
+        <v>4.6000000000000005</v>
       </c>
     </row>
   </sheetData>
